--- a/data/trans_camb/P16B15-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P16B15-Clase-trans_camb.xlsx
@@ -639,12 +639,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 24,75</t>
+          <t>0,0; 23,34</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-7,27; 15,84</t>
+          <t>-7,61; 17,18</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -659,12 +659,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 16,16</t>
+          <t>0,0; 15,08</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-5,22; 12,55</t>
+          <t>-5,27; 11,39</t>
         </is>
       </c>
     </row>
@@ -715,12 +715,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 32,86</t>
+          <t>0,0; 30,41</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-7,29; 19,47</t>
+          <t>-7,68; 21,25</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -735,12 +735,12 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 19,27</t>
+          <t>0,0; 17,75</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-5,25; 14,55</t>
+          <t>-5,35; 13,05</t>
         </is>
       </c>
     </row>
@@ -800,7 +800,7 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-21,17; 0,0</t>
+          <t>-20,01; 0,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -820,7 +820,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-12,77; 0,0</t>
+          <t>-12,22; 0,0</t>
         </is>
       </c>
     </row>
@@ -876,7 +876,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-21,17; 0,0</t>
+          <t>-20,01; 0,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -896,7 +896,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-12,77; 0,0</t>
+          <t>-12,22; 0,0</t>
         </is>
       </c>
     </row>
@@ -956,7 +956,7 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-7,01; 0,0</t>
+          <t>-7,54; 0,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -976,7 +976,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-6,23; 0,0</t>
+          <t>-6,01; 0,0</t>
         </is>
       </c>
     </row>
@@ -1032,7 +1032,7 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-7,01; 0,0</t>
+          <t>-7,54; 0,0</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1052,7 +1052,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-6,23; 0,0</t>
+          <t>-6,01; 0,0</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,48; 3,92</t>
+          <t>-1,46; 3,9</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,43</t>
+          <t>0,0; 5,03</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,84</t>
+          <t>0,0; 10,79</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-9,62; 4,45</t>
+          <t>-8,0; 4,49</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,82; 3,68</t>
+          <t>-0,72; 3,53</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-2,26; 2,78</t>
+          <t>-1,86; 2,78</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-1,48; 4,09</t>
+          <t>-1,46; 4,04</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,74</t>
+          <t>0,0; 5,3</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,7</t>
+          <t>0,0; 12,09</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-9,64; 4,76</t>
+          <t>-8,01; 4,8</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-0,82; 3,84</t>
+          <t>-0,72; 3,68</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-2,28; 2,86</t>
+          <t>-1,86; 2,88</t>
         </is>
       </c>
     </row>
@@ -1429,22 +1429,22 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-0,55; 3,25</t>
+          <t>-1,0; 3,72</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,98</t>
+          <t>0,0; 4,34</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-0,54; 3,08</t>
+          <t>-1,0; 3,63</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,7</t>
+          <t>0,0; 4,28</t>
         </is>
       </c>
     </row>
@@ -1505,22 +1505,22 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-0,55; 3,38</t>
+          <t>-1,01; 3,86</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,15</t>
+          <t>0,0; 4,54</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-0,54; 3,18</t>
+          <t>-1,01; 3,77</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,84</t>
+          <t>0,0; 4,47</t>
         </is>
       </c>
     </row>
@@ -1575,32 +1575,32 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-0,14; 4,14</t>
+          <t>0,0; 4,05</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-1,9; 2,79</t>
+          <t>-1,91; 2,87</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-0,17; 2,35</t>
+          <t>-0,16; 2,46</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-0,72; 2,06</t>
+          <t>-0,72; 2,16</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>0,11; 2,34</t>
+          <t>0,16; 2,45</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 1,67</t>
+          <t>-0,85; 1,65</t>
         </is>
       </c>
     </row>
@@ -1651,32 +1651,32 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-0,14; 4,31</t>
+          <t>0,0; 4,23</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-1,91; 2,9</t>
+          <t>-1,92; 2,98</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-0,17; 2,41</t>
+          <t>-0,16; 2,53</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-0,72; 2,11</t>
+          <t>-0,72; 2,22</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>0,11; 2,4</t>
+          <t>0,17; 2,52</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 1,72</t>
+          <t>-0,85; 1,68</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16B15-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P16B15-Clase-trans_camb.xlsx
@@ -1371,7 +1371,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
